--- a/Data Set - cough paper-2.xlsx
+++ b/Data Set - cough paper-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/Consulting META/Meta-Analysis-Gintas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B1DF46-AB29-1B41-8E7B-EF76138B1343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F01629-3AC9-9B41-A2D5-E5487B758916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="27640" windowHeight="15860" xr2:uid="{33D5FC81-9AE6-BA43-ABEA-DDFB7F03EACB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>Author</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>LCQ</t>
-  </si>
-  <si>
-    <t>1.8*</t>
   </si>
   <si>
     <t>N. M. Ryan; S. S. Birring; P. G. Gibson</t>
@@ -164,12 +161,6 @@
     </r>
   </si>
   <si>
-    <t>2.5*</t>
-  </si>
-  <si>
-    <t>1.1*</t>
-  </si>
-  <si>
     <t>Smith et al</t>
   </si>
   <si>
@@ -206,9 +197,6 @@
   </si>
   <si>
     <t>Eliapixant</t>
-  </si>
-  <si>
-    <t>* change from baseline</t>
   </si>
   <si>
     <t>*change from baseline</t>
@@ -621,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD7D652A-09DF-7D4F-BEBE-3601E9B1C9AF}">
   <dimension ref="A1:AD15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="104" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="104" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -870,14 +858,14 @@
       <c r="X9" s="6">
         <v>2.95</v>
       </c>
-      <c r="Y9" s="6" t="s">
-        <v>31</v>
+      <c r="Y9" s="6">
+        <v>1.8</v>
       </c>
       <c r="Z9" s="6">
         <v>3.8</v>
       </c>
-      <c r="AA9" s="6" t="s">
-        <v>31</v>
+      <c r="AA9" s="6">
+        <v>1.8</v>
       </c>
       <c r="AB9" s="6">
         <v>3.8</v>
@@ -891,10 +879,10 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C10" s="2">
         <v>62</v>
@@ -906,7 +894,7 @@
         <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="5">
         <v>43.6</v>
@@ -962,14 +950,14 @@
       <c r="X10" s="6">
         <v>3.9</v>
       </c>
-      <c r="Y10" s="6" t="s">
-        <v>35</v>
+      <c r="Y10" s="6">
+        <v>2.5</v>
       </c>
       <c r="Z10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AA10" s="6" t="s">
-        <v>36</v>
+      <c r="AA10" s="6">
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB10" s="6" t="s">
         <v>29</v>
@@ -983,10 +971,10 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>253</v>
@@ -998,7 +986,7 @@
         <v>63</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" s="5">
         <v>57.9</v>
@@ -1055,13 +1043,13 @@
         <v>2.8</v>
       </c>
       <c r="Y11" s="6">
-        <v>15.3</v>
+        <v>4</v>
       </c>
       <c r="Z11" s="6">
         <v>3.77</v>
       </c>
       <c r="AA11" s="6">
-        <v>13.8</v>
+        <v>1.6</v>
       </c>
       <c r="AB11" s="6">
         <v>3.81</v>
@@ -1075,10 +1063,10 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C12" s="8">
         <v>40</v>
@@ -1090,7 +1078,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5">
         <v>70.599999999999994</v>
@@ -1147,13 +1135,13 @@
         <v>3.51</v>
       </c>
       <c r="Y12" s="6">
-        <v>13.69</v>
+        <v>2.15</v>
       </c>
       <c r="Z12" s="6">
         <v>3.89</v>
       </c>
       <c r="AA12" s="6">
-        <v>12.25</v>
+        <v>0.69</v>
       </c>
       <c r="AB12" s="6">
         <v>3.06</v>
@@ -1169,19 +1157,13 @@
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="K14" t="s">
-        <v>42</v>
-      </c>
       <c r="Y14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="K15" t="s">
-        <v>44</v>
-      </c>
       <c r="U15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
